--- a/owlcms/src/main/resources/templates/records/reportSheets.xlsx
+++ b/owlcms/src/main/resources/templates/records/reportSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D2475B-DCEC-4EA8-B6A3-DE0EB462E3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1691EA89-B6B3-4417-9A31-80C6CF02E8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2025" yWindow="750" windowWidth="22485" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Federation</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>${t.get("Records."+"Place")}</t>
+  </si>
+  <si>
+    <t>${t.get("Records."+"Event")}</t>
+  </si>
+  <si>
+    <t>${r.event}</t>
   </si>
 </sst>
 </file>
@@ -591,14 +597,14 @@
     <col min="2" max="2" width="18.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="10" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="10" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="10" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" style="15" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="5" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" style="15" customWidth="1"/>
     <col min="11" max="11" width="33.140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11" style="8" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" style="5" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" style="8" customWidth="1"/>
     <col min="15" max="15" width="32.28515625" style="5" customWidth="1"/>
@@ -653,7 +659,7 @@
         <v>29</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
@@ -704,7 +710,7 @@
         <v>13</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="6"/>
     </row>
